--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H2">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I2">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J2">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N2">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q2">
-        <v>61.95956781401944</v>
+        <v>39.771048173282</v>
       </c>
       <c r="R2">
-        <v>557.6361103261751</v>
+        <v>357.939433559538</v>
       </c>
       <c r="S2">
-        <v>0.02884061456367948</v>
+        <v>0.01491198502990073</v>
       </c>
       <c r="T2">
-        <v>0.02884061456367949</v>
+        <v>0.01491198502990073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H3">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I3">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J3">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P3">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q3">
-        <v>662.3181876581833</v>
+        <v>666.0767990663713</v>
       </c>
       <c r="R3">
-        <v>5960.86368892365</v>
+        <v>5994.691191597342</v>
       </c>
       <c r="S3">
-        <v>0.3082923952294307</v>
+        <v>0.2497426573512979</v>
       </c>
       <c r="T3">
-        <v>0.3082923952294308</v>
+        <v>0.2497426573512979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H4">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I4">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J4">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N4">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O4">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P4">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q4">
-        <v>344.1226560696222</v>
+        <v>788.1417685809489</v>
       </c>
       <c r="R4">
-        <v>3097.1039046266</v>
+        <v>7093.27591722854</v>
       </c>
       <c r="S4">
-        <v>0.1601804085548829</v>
+        <v>0.2955103974959867</v>
       </c>
       <c r="T4">
-        <v>0.160180408554883</v>
+        <v>0.2955103974959867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H5">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I5">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J5">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N5">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q5">
-        <v>709.8058437917945</v>
+        <v>704.3694512849243</v>
       </c>
       <c r="R5">
-        <v>6388.252594126149</v>
+        <v>6339.325061564318</v>
       </c>
       <c r="S5">
-        <v>0.3303967002690172</v>
+        <v>0.264100324118096</v>
       </c>
       <c r="T5">
-        <v>0.3303967002690172</v>
+        <v>0.264100324118096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H6">
         <v>2.377799</v>
       </c>
       <c r="I6">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J6">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N6">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q6">
-        <v>2.372363615685888</v>
+        <v>1.514196669994</v>
       </c>
       <c r="R6">
-        <v>21.351272541173</v>
+        <v>13.627770029946</v>
       </c>
       <c r="S6">
-        <v>0.001104275369548534</v>
+        <v>0.000567741588727978</v>
       </c>
       <c r="T6">
-        <v>0.001104275369548534</v>
+        <v>0.000567741588727978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H7">
         <v>2.377799</v>
       </c>
       <c r="I7">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J7">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P7">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q7">
-        <v>25.35943399611266</v>
+        <v>25.35943399611267</v>
       </c>
       <c r="R7">
         <v>228.234905965014</v>
       </c>
       <c r="S7">
-        <v>0.01180417629171176</v>
+        <v>0.009508411708666847</v>
       </c>
       <c r="T7">
-        <v>0.01180417629171176</v>
+        <v>0.009508411708666847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H8">
         <v>2.377799</v>
       </c>
       <c r="I8">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J8">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N8">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O8">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P8">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q8">
-        <v>13.17607751950844</v>
+        <v>30.006793793033</v>
       </c>
       <c r="R8">
-        <v>118.584697675576</v>
+        <v>270.061144137297</v>
       </c>
       <c r="S8">
-        <v>0.006133131437293884</v>
+        <v>0.01125091945999121</v>
       </c>
       <c r="T8">
-        <v>0.006133131437293885</v>
+        <v>0.01125091945999121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H9">
         <v>2.377799</v>
       </c>
       <c r="I9">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J9">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N9">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q9">
-        <v>27.17768405143488</v>
+        <v>26.81734393657845</v>
       </c>
       <c r="R9">
-        <v>244.599156462914</v>
+        <v>241.356095429206</v>
       </c>
       <c r="S9">
-        <v>0.01265052578826315</v>
+        <v>0.01005504882802178</v>
       </c>
       <c r="T9">
-        <v>0.01265052578826315</v>
+        <v>0.01005504882802178</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H10">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I10">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J10">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N10">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q10">
-        <v>5.847854826892333</v>
+        <v>2.936035455389999</v>
       </c>
       <c r="R10">
-        <v>52.630693442031</v>
+        <v>26.42431909851</v>
       </c>
       <c r="S10">
-        <v>0.002722028784852063</v>
+        <v>0.001100853982205228</v>
       </c>
       <c r="T10">
-        <v>0.002722028784852064</v>
+        <v>0.001100853982205228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H11">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I11">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J11">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P11">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q11">
-        <v>62.510775127762</v>
+        <v>49.17207838101</v>
       </c>
       <c r="R11">
-        <v>562.5969761498579</v>
+        <v>442.54870542909</v>
       </c>
       <c r="S11">
-        <v>0.02909718765224665</v>
+        <v>0.01843686124418824</v>
       </c>
       <c r="T11">
-        <v>0.02909718765224666</v>
+        <v>0.01843686124418824</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H12">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I12">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J12">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N12">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O12">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P12">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q12">
-        <v>32.47891175387466</v>
+        <v>58.18333392535499</v>
       </c>
       <c r="R12">
-        <v>292.310205784872</v>
+        <v>523.6500053281949</v>
       </c>
       <c r="S12">
-        <v>0.01511811344702941</v>
+        <v>0.02181559310944885</v>
       </c>
       <c r="T12">
-        <v>0.01511811344702942</v>
+        <v>0.02181559310944885</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H13">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I13">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J13">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N13">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q13">
-        <v>66.99274504679533</v>
+        <v>51.99897356629</v>
       </c>
       <c r="R13">
-        <v>602.9347054211579</v>
+        <v>467.99076209661</v>
       </c>
       <c r="S13">
-        <v>0.03118343149611669</v>
+        <v>0.01949679354721246</v>
       </c>
       <c r="T13">
-        <v>0.03118343149611669</v>
+        <v>0.01949679354721246</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H14">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I14">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J14">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N14">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O14">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P14">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q14">
-        <v>4.676816822684891</v>
+        <v>4.029016159878</v>
       </c>
       <c r="R14">
-        <v>42.09135140416402</v>
+        <v>36.261145438902</v>
       </c>
       <c r="S14">
-        <v>0.002176940158344157</v>
+        <v>0.001510662439661088</v>
       </c>
       <c r="T14">
-        <v>0.002176940158344158</v>
+        <v>0.001510662439661089</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H15">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I15">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J15">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>95.985786</v>
       </c>
       <c r="O15">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P15">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q15">
-        <v>49.99293815779468</v>
+        <v>67.477079695402</v>
       </c>
       <c r="R15">
-        <v>449.9364434201521</v>
+        <v>607.293717258618</v>
       </c>
       <c r="S15">
-        <v>0.02327045057258424</v>
+        <v>0.02530024348101605</v>
       </c>
       <c r="T15">
-        <v>0.02327045057258424</v>
+        <v>0.02530024348101605</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H16">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I16">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J16">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N16">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O16">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P16">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q16">
-        <v>25.97498148799645</v>
+        <v>79.842902506671</v>
       </c>
       <c r="R16">
-        <v>233.774833391968</v>
+        <v>718.5861225600388</v>
       </c>
       <c r="S16">
-        <v>0.01209069810884818</v>
+        <v>0.02993675604766061</v>
       </c>
       <c r="T16">
-        <v>0.01209069810884818</v>
+        <v>0.02993675604766061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H17">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I17">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J17">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N17">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O17">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P17">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q17">
-        <v>53.5773897108169</v>
+        <v>71.35632657672467</v>
       </c>
       <c r="R17">
-        <v>482.1965073973521</v>
+        <v>642.206939190522</v>
       </c>
       <c r="S17">
-        <v>0.02493892227615066</v>
+        <v>0.02675475056791838</v>
       </c>
       <c r="T17">
-        <v>0.02493892227615066</v>
+        <v>0.02675475056791839</v>
       </c>
     </row>
   </sheetData>
